--- a/LR3/table_1_61.xlsx
+++ b/LR3/table_1_61.xlsx
@@ -573,7 +573,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -583,8 +583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -824,7 +824,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" si="5"/>
@@ -866,7 +866,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" si="5"/>

--- a/LR3/table_1_61.xlsx
+++ b/LR3/table_1_61.xlsx
@@ -573,7 +573,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -583,8 +583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -717,6 +717,7 @@
         <v>44813</v>
       </c>
       <c r="G4" s="4">
+        <f>G3+1</f>
         <v>44806</v>
       </c>
       <c r="H4" s="1">
@@ -724,6 +725,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="1">
+        <f>I3</f>
         <v>10</v>
       </c>
       <c r="J4" s="1">
@@ -759,6 +761,7 @@
         <v>44813</v>
       </c>
       <c r="G5" s="4">
+        <f t="shared" ref="G5:G38" si="7">G4+1</f>
         <v>44807</v>
       </c>
       <c r="H5" s="1">
@@ -766,6 +769,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="1">
+        <f t="shared" ref="I5:I38" si="8">I4</f>
         <v>10</v>
       </c>
       <c r="J5" s="1">
@@ -801,6 +805,7 @@
         <v>44813</v>
       </c>
       <c r="G6" s="4">
+        <f t="shared" si="7"/>
         <v>44808</v>
       </c>
       <c r="H6" s="1">
@@ -808,6 +813,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J6" s="1">
@@ -843,6 +849,7 @@
         <v>44813</v>
       </c>
       <c r="G7" s="4">
+        <f t="shared" si="7"/>
         <v>44809</v>
       </c>
       <c r="H7" s="1">
@@ -850,6 +857,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J7" s="1">
@@ -885,6 +893,7 @@
         <v>44813</v>
       </c>
       <c r="G8" s="4">
+        <f t="shared" si="7"/>
         <v>44810</v>
       </c>
       <c r="H8" s="1">
@@ -892,6 +901,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J8" s="1">
@@ -927,6 +937,7 @@
         <v>44813</v>
       </c>
       <c r="G9" s="4">
+        <f t="shared" si="7"/>
         <v>44811</v>
       </c>
       <c r="H9" s="1">
@@ -934,6 +945,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J9" s="1">
@@ -969,6 +981,7 @@
         <v>44813</v>
       </c>
       <c r="G10" s="4">
+        <f t="shared" si="7"/>
         <v>44812</v>
       </c>
       <c r="H10" s="1">
@@ -976,6 +989,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J10" s="1">
@@ -1011,6 +1025,7 @@
         <v>44813</v>
       </c>
       <c r="G11" s="4">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="H11" s="1">
@@ -1018,6 +1033,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J11" s="1">
@@ -1053,6 +1069,7 @@
         <v>44813</v>
       </c>
       <c r="G12" s="4">
+        <f t="shared" si="7"/>
         <v>44814</v>
       </c>
       <c r="H12" s="1">
@@ -1060,6 +1077,7 @@
         <v>1</v>
       </c>
       <c r="I12" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J12" s="1">
@@ -1095,6 +1113,7 @@
         <v>44813</v>
       </c>
       <c r="G13" s="4">
+        <f t="shared" si="7"/>
         <v>44815</v>
       </c>
       <c r="H13" s="1">
@@ -1102,6 +1121,7 @@
         <v>2</v>
       </c>
       <c r="I13" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J13" s="1">
@@ -1137,6 +1157,7 @@
         <v>44813</v>
       </c>
       <c r="G14" s="4">
+        <f t="shared" si="7"/>
         <v>44816</v>
       </c>
       <c r="H14" s="1">
@@ -1144,6 +1165,7 @@
         <v>3</v>
       </c>
       <c r="I14" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J14" s="1">
@@ -1179,6 +1201,7 @@
         <v>44813</v>
       </c>
       <c r="G15" s="4">
+        <f t="shared" si="7"/>
         <v>44817</v>
       </c>
       <c r="H15" s="1">
@@ -1186,6 +1209,7 @@
         <v>4</v>
       </c>
       <c r="I15" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J15" s="1">
@@ -1221,6 +1245,7 @@
         <v>44813</v>
       </c>
       <c r="G16" s="4">
+        <f t="shared" si="7"/>
         <v>44818</v>
       </c>
       <c r="H16" s="1">
@@ -1228,6 +1253,7 @@
         <v>5</v>
       </c>
       <c r="I16" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J16" s="1">
@@ -1263,6 +1289,7 @@
         <v>44813</v>
       </c>
       <c r="G17" s="4">
+        <f t="shared" si="7"/>
         <v>44819</v>
       </c>
       <c r="H17" s="1">
@@ -1270,6 +1297,7 @@
         <v>6</v>
       </c>
       <c r="I17" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J17" s="1">
@@ -1305,6 +1333,7 @@
         <v>44813</v>
       </c>
       <c r="G18" s="4">
+        <f t="shared" si="7"/>
         <v>44820</v>
       </c>
       <c r="H18" s="1">
@@ -1312,6 +1341,7 @@
         <v>7</v>
       </c>
       <c r="I18" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J18" s="1">
@@ -1347,6 +1377,7 @@
         <v>44813</v>
       </c>
       <c r="G19" s="4">
+        <f t="shared" si="7"/>
         <v>44821</v>
       </c>
       <c r="H19" s="1">
@@ -1354,6 +1385,7 @@
         <v>8</v>
       </c>
       <c r="I19" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J19" s="1">
@@ -1389,6 +1421,7 @@
         <v>44813</v>
       </c>
       <c r="G20" s="4">
+        <f t="shared" si="7"/>
         <v>44822</v>
       </c>
       <c r="H20" s="1">
@@ -1396,6 +1429,7 @@
         <v>9</v>
       </c>
       <c r="I20" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J20" s="1">
@@ -1431,6 +1465,7 @@
         <v>44813</v>
       </c>
       <c r="G21" s="4">
+        <f t="shared" si="7"/>
         <v>44823</v>
       </c>
       <c r="H21" s="1">
@@ -1438,6 +1473,7 @@
         <v>10</v>
       </c>
       <c r="I21" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J21" s="1">
@@ -1473,6 +1509,7 @@
         <v>44813</v>
       </c>
       <c r="G22" s="4">
+        <f t="shared" si="7"/>
         <v>44824</v>
       </c>
       <c r="H22" s="1">
@@ -1480,6 +1517,7 @@
         <v>11</v>
       </c>
       <c r="I22" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J22" s="1">
@@ -1515,6 +1553,7 @@
         <v>44813</v>
       </c>
       <c r="G23" s="4">
+        <f t="shared" si="7"/>
         <v>44825</v>
       </c>
       <c r="H23" s="1">
@@ -1522,6 +1561,7 @@
         <v>12</v>
       </c>
       <c r="I23" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J23" s="1">
@@ -1557,6 +1597,7 @@
         <v>44813</v>
       </c>
       <c r="G24" s="4">
+        <f t="shared" si="7"/>
         <v>44826</v>
       </c>
       <c r="H24" s="1">
@@ -1564,6 +1605,7 @@
         <v>13</v>
       </c>
       <c r="I24" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J24" s="1">
@@ -1599,6 +1641,7 @@
         <v>44813</v>
       </c>
       <c r="G25" s="4">
+        <f t="shared" si="7"/>
         <v>44827</v>
       </c>
       <c r="H25" s="1">
@@ -1606,6 +1649,7 @@
         <v>14</v>
       </c>
       <c r="I25" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J25" s="1">
@@ -1641,6 +1685,7 @@
         <v>44813</v>
       </c>
       <c r="G26" s="4">
+        <f t="shared" si="7"/>
         <v>44828</v>
       </c>
       <c r="H26" s="1">
@@ -1648,6 +1693,7 @@
         <v>15</v>
       </c>
       <c r="I26" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J26" s="1">
@@ -1683,6 +1729,7 @@
         <v>44813</v>
       </c>
       <c r="G27" s="4">
+        <f t="shared" si="7"/>
         <v>44829</v>
       </c>
       <c r="H27" s="1">
@@ -1690,6 +1737,7 @@
         <v>16</v>
       </c>
       <c r="I27" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J27" s="1">
@@ -1725,6 +1773,7 @@
         <v>44813</v>
       </c>
       <c r="G28" s="4">
+        <f t="shared" si="7"/>
         <v>44830</v>
       </c>
       <c r="H28" s="1">
@@ -1732,6 +1781,7 @@
         <v>17</v>
       </c>
       <c r="I28" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J28" s="1">
@@ -1767,6 +1817,7 @@
         <v>44813</v>
       </c>
       <c r="G29" s="4">
+        <f t="shared" si="7"/>
         <v>44831</v>
       </c>
       <c r="H29" s="1">
@@ -1774,6 +1825,7 @@
         <v>18</v>
       </c>
       <c r="I29" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J29" s="1">
@@ -1809,6 +1861,7 @@
         <v>44813</v>
       </c>
       <c r="G30" s="4">
+        <f t="shared" si="7"/>
         <v>44832</v>
       </c>
       <c r="H30" s="1">
@@ -1816,6 +1869,7 @@
         <v>19</v>
       </c>
       <c r="I30" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J30" s="1">
@@ -1851,6 +1905,7 @@
         <v>44813</v>
       </c>
       <c r="G31" s="4">
+        <f t="shared" si="7"/>
         <v>44833</v>
       </c>
       <c r="H31" s="1">
@@ -1858,6 +1913,7 @@
         <v>20</v>
       </c>
       <c r="I31" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J31" s="1">
@@ -1893,6 +1949,7 @@
         <v>44813</v>
       </c>
       <c r="G32" s="4">
+        <f t="shared" si="7"/>
         <v>44834</v>
       </c>
       <c r="H32" s="1">
@@ -1900,6 +1957,7 @@
         <v>21</v>
       </c>
       <c r="I32" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J32" s="1">
@@ -1935,6 +1993,7 @@
         <v>44813</v>
       </c>
       <c r="G33" s="4">
+        <f t="shared" si="7"/>
         <v>44835</v>
       </c>
       <c r="H33" s="1">
@@ -1942,6 +2001,7 @@
         <v>22</v>
       </c>
       <c r="I33" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J33" s="1">
@@ -1977,6 +2037,7 @@
         <v>44813</v>
       </c>
       <c r="G34" s="4">
+        <f t="shared" si="7"/>
         <v>44836</v>
       </c>
       <c r="H34" s="1">
@@ -1984,6 +2045,7 @@
         <v>23</v>
       </c>
       <c r="I34" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J34" s="1">
@@ -2019,6 +2081,7 @@
         <v>44813</v>
       </c>
       <c r="G35" s="4">
+        <f t="shared" si="7"/>
         <v>44837</v>
       </c>
       <c r="H35" s="1">
@@ -2026,6 +2089,7 @@
         <v>24</v>
       </c>
       <c r="I35" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J35" s="1">
@@ -2049,7 +2113,7 @@
         <v>53.5</v>
       </c>
       <c r="D36" s="1">
-        <f t="shared" ref="D36:D37" si="7">($A$1*1.1)/2</f>
+        <f t="shared" ref="D36:D37" si="9">($A$1*1.1)/2</f>
         <v>33.550000000000004</v>
       </c>
       <c r="E36" s="1">
@@ -2061,6 +2125,7 @@
         <v>44813</v>
       </c>
       <c r="G36" s="4">
+        <f t="shared" si="7"/>
         <v>44838</v>
       </c>
       <c r="H36" s="1">
@@ -2068,6 +2133,7 @@
         <v>25</v>
       </c>
       <c r="I36" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J36" s="1">
@@ -2091,7 +2157,7 @@
         <v>53</v>
       </c>
       <c r="D37" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>33.550000000000004</v>
       </c>
       <c r="E37" s="1">
@@ -2103,6 +2169,7 @@
         <v>44813</v>
       </c>
       <c r="G37" s="4">
+        <f t="shared" si="7"/>
         <v>44839</v>
       </c>
       <c r="H37" s="1">
@@ -2110,6 +2177,7 @@
         <v>26</v>
       </c>
       <c r="I37" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J37" s="1">
@@ -2145,6 +2213,7 @@
         <v>44813</v>
       </c>
       <c r="G38" s="4">
+        <f t="shared" si="7"/>
         <v>44840</v>
       </c>
       <c r="H38" s="1">
@@ -2152,6 +2221,7 @@
         <v>27</v>
       </c>
       <c r="I38" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J38" s="1">

--- a/LR3/table_1_61.xlsx
+++ b/LR3/table_1_61.xlsx
@@ -176,10 +176,10 @@
     <t>Максимальная сумма к оплате, руб.</t>
   </si>
   <si>
-    <t>Пени за день, руб.</t>
-  </si>
-  <si>
     <t>Тариф, руб./кв.м.</t>
+  </si>
+  <si>
+    <t>Пени за день</t>
   </si>
 </sst>
 </file>
@@ -249,7 +249,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -265,6 +265,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -573,7 +576,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -583,8 +586,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -628,7 +631,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>44</v>
@@ -643,7 +646,7 @@
         <v>39</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>40</v>
@@ -653,7 +656,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
+      <c r="A3" s="6">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -694,7 +697,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="1">
+      <c r="A4" s="6">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -738,7 +741,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="1">
+      <c r="A5" s="6">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -782,7 +785,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="1">
+      <c r="A6" s="6">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -826,7 +829,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="1">
+      <c r="A7" s="6">
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -870,7 +873,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="1">
+      <c r="A8" s="6">
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -914,7 +917,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="1">
+      <c r="A9" s="6">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -958,7 +961,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="1">
+      <c r="A10" s="6">
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -1002,7 +1005,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="1">
+      <c r="A11" s="6">
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -1046,7 +1049,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="1">
+      <c r="A12" s="6">
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -1090,7 +1093,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="1">
+      <c r="A13" s="6">
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -1134,7 +1137,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="1">
+      <c r="A14" s="6">
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -1178,7 +1181,7 @@
       </c>
     </row>
     <row r="15" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="1">
+      <c r="A15" s="6">
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -1222,7 +1225,7 @@
       </c>
     </row>
     <row r="16" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="1">
+      <c r="A16" s="6">
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -1266,7 +1269,7 @@
       </c>
     </row>
     <row r="17" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="1">
+      <c r="A17" s="6">
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -1310,7 +1313,7 @@
       </c>
     </row>
     <row r="18" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="1">
+      <c r="A18" s="6">
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -1354,7 +1357,7 @@
       </c>
     </row>
     <row r="19" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="1">
+      <c r="A19" s="6">
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -1398,7 +1401,7 @@
       </c>
     </row>
     <row r="20" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="1">
+      <c r="A20" s="6">
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -1442,7 +1445,7 @@
       </c>
     </row>
     <row r="21" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="1">
+      <c r="A21" s="6">
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -1486,7 +1489,7 @@
       </c>
     </row>
     <row r="22" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="1">
+      <c r="A22" s="6">
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -1530,7 +1533,7 @@
       </c>
     </row>
     <row r="23" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="1">
+      <c r="A23" s="6">
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -1574,7 +1577,7 @@
       </c>
     </row>
     <row r="24" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="1">
+      <c r="A24" s="6">
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -1618,7 +1621,7 @@
       </c>
     </row>
     <row r="25" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A25" s="1">
+      <c r="A25" s="6">
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
@@ -1662,7 +1665,7 @@
       </c>
     </row>
     <row r="26" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A26" s="1">
+      <c r="A26" s="6">
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
@@ -1706,7 +1709,7 @@
       </c>
     </row>
     <row r="27" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A27" s="1">
+      <c r="A27" s="6">
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -1750,7 +1753,7 @@
       </c>
     </row>
     <row r="28" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A28" s="1">
+      <c r="A28" s="6">
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
@@ -1794,7 +1797,7 @@
       </c>
     </row>
     <row r="29" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A29" s="1">
+      <c r="A29" s="6">
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
@@ -1838,7 +1841,7 @@
       </c>
     </row>
     <row r="30" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A30" s="1">
+      <c r="A30" s="6">
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
@@ -1882,7 +1885,7 @@
       </c>
     </row>
     <row r="31" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A31" s="1">
+      <c r="A31" s="6">
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
@@ -1926,7 +1929,7 @@
       </c>
     </row>
     <row r="32" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A32" s="1">
+      <c r="A32" s="6">
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
@@ -1970,7 +1973,7 @@
       </c>
     </row>
     <row r="33" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A33" s="1">
+      <c r="A33" s="6">
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
@@ -2014,7 +2017,7 @@
       </c>
     </row>
     <row r="34" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A34" s="1">
+      <c r="A34" s="6">
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
@@ -2058,7 +2061,7 @@
       </c>
     </row>
     <row r="35" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A35" s="1">
+      <c r="A35" s="6">
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
@@ -2102,7 +2105,7 @@
       </c>
     </row>
     <row r="36" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A36" s="1">
+      <c r="A36" s="6">
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
@@ -2146,7 +2149,7 @@
       </c>
     </row>
     <row r="37" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A37" s="1">
+      <c r="A37" s="6">
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
@@ -2190,7 +2193,7 @@
       </c>
     </row>
     <row r="38" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A38" s="1">
+      <c r="A38" s="6">
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">

--- a/LR3/table_1_61.xlsx
+++ b/LR3/table_1_61.xlsx
@@ -576,7 +576,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -587,7 +587,7 @@
   <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -728,7 +728,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="1">
-        <f>I3</f>
+        <f>$I$3</f>
         <v>10</v>
       </c>
       <c r="J4" s="1">
@@ -772,7 +772,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="1">
-        <f t="shared" ref="I5:I38" si="8">I4</f>
+        <f t="shared" ref="I5:I38" si="8">$I$3</f>
         <v>10</v>
       </c>
       <c r="J5" s="1">
@@ -2236,7 +2236,7 @@
         <v>2031.3750000000002</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="15.65" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A39" s="1"/>
       <c r="B39" s="3"/>
       <c r="C39" s="1"/>

--- a/LR3/table_1_61.xlsx
+++ b/LR3/table_1_61.xlsx
@@ -587,7 +587,7 @@
   <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/LR3/table_1_61.xlsx
+++ b/LR3/table_1_61.xlsx
@@ -576,7 +576,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -587,7 +587,7 @@
   <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -667,7 +667,7 @@
         <v>70</v>
       </c>
       <c r="D3" s="1">
-        <f>$A$1*1.1</f>
+        <f>A1*1.1</f>
         <v>67.100000000000009</v>
       </c>
       <c r="E3" s="1">
@@ -681,7 +681,7 @@
         <v>44805</v>
       </c>
       <c r="H3" s="1">
-        <f>IF(G3&lt;=F3,0,G3-F3)</f>
+        <f>IF(G3&gt;F3,G3-F3,0)</f>
         <v>0</v>
       </c>
       <c r="I3" s="1">
@@ -698,6 +698,7 @@
     </row>
     <row r="4" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="6">
+        <f>A3+1</f>
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -708,11 +709,11 @@
         <v>69.5</v>
       </c>
       <c r="D4" s="1">
-        <f t="shared" ref="D4:D34" si="0">$A$1*1.1</f>
+        <f>D3</f>
         <v>67.100000000000009</v>
       </c>
       <c r="E4" s="1">
-        <f t="shared" ref="E4:E38" si="1">C4*D4</f>
+        <f t="shared" ref="E4:E38" si="0">C4*D4</f>
         <v>4663.4500000000007</v>
       </c>
       <c r="F4" s="4">
@@ -724,7 +725,7 @@
         <v>44806</v>
       </c>
       <c r="H4" s="1">
-        <f t="shared" ref="H4:H38" si="2">IF(G4&lt;=F4,0,G4-F4)</f>
+        <f t="shared" ref="H4:H38" si="1">IF(G4&gt;F4,G4-F4,0)</f>
         <v>0</v>
       </c>
       <c r="I4" s="1">
@@ -732,16 +733,17 @@
         <v>10</v>
       </c>
       <c r="J4" s="1">
-        <f t="shared" ref="J4:J38" si="3">I4*H4</f>
+        <f t="shared" ref="J4:J38" si="2">I4*H4</f>
         <v>0</v>
       </c>
       <c r="K4" s="1">
-        <f t="shared" ref="K4:K38" si="4">J4+E4</f>
+        <f t="shared" ref="K4:K38" si="3">J4+E4</f>
         <v>4663.4500000000007</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="6">
+        <f t="shared" ref="A5:A38" si="4">A4+1</f>
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -752,40 +754,41 @@
         <v>69</v>
       </c>
       <c r="D5" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D5:D34" si="6">D4</f>
         <v>67.100000000000009</v>
       </c>
       <c r="E5" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4629.9000000000005</v>
       </c>
       <c r="F5" s="4">
-        <f t="shared" ref="F5:F38" si="6">$F$3</f>
+        <f t="shared" ref="F5:F38" si="7">$F$3</f>
         <v>44813</v>
       </c>
       <c r="G5" s="4">
-        <f t="shared" ref="G5:G38" si="7">G4+1</f>
+        <f t="shared" ref="G5:G38" si="8">G4+1</f>
         <v>44807</v>
       </c>
       <c r="H5" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I5" s="1">
-        <f t="shared" ref="I5:I38" si="8">$I$3</f>
+        <f t="shared" ref="I5:I38" si="9">$I$3</f>
         <v>10</v>
       </c>
       <c r="J5" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K5" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4629.9000000000005</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="6">
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -796,40 +799,41 @@
         <v>68.5</v>
       </c>
       <c r="D6" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>67.100000000000009</v>
       </c>
       <c r="E6" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4596.3500000000004</v>
       </c>
       <c r="F6" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G6" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44808</v>
       </c>
       <c r="H6" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I6" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J6" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K6" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4596.3500000000004</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="6">
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -840,40 +844,41 @@
         <v>68</v>
       </c>
       <c r="D7" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>67.100000000000009</v>
       </c>
       <c r="E7" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4562.8</v>
       </c>
       <c r="F7" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G7" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44809</v>
       </c>
       <c r="H7" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I7" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J7" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K7" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4562.8</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="6">
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -884,40 +889,41 @@
         <v>67.5</v>
       </c>
       <c r="D8" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>67.100000000000009</v>
       </c>
       <c r="E8" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4529.2500000000009</v>
       </c>
       <c r="F8" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G8" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44810</v>
       </c>
       <c r="H8" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I8" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J8" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K8" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4529.2500000000009</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="6">
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -928,40 +934,41 @@
         <v>67</v>
       </c>
       <c r="D9" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>67.100000000000009</v>
       </c>
       <c r="E9" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4495.7000000000007</v>
       </c>
       <c r="F9" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G9" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44811</v>
       </c>
       <c r="H9" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I9" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J9" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K9" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4495.7000000000007</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" s="6">
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -972,40 +979,41 @@
         <v>66.5</v>
       </c>
       <c r="D10" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>67.100000000000009</v>
       </c>
       <c r="E10" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4462.1500000000005</v>
       </c>
       <c r="F10" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G10" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44812</v>
       </c>
       <c r="H10" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I10" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J10" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K10" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4462.1500000000005</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" s="6">
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -1016,40 +1024,41 @@
         <v>66</v>
       </c>
       <c r="D11" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>67.100000000000009</v>
       </c>
       <c r="E11" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4428.6000000000004</v>
       </c>
       <c r="F11" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G11" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
       <c r="H11" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I11" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J11" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K11" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4428.6000000000004</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" s="6">
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -1060,40 +1069,41 @@
         <v>65.5</v>
       </c>
       <c r="D12" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>67.100000000000009</v>
       </c>
       <c r="E12" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4395.05</v>
       </c>
       <c r="F12" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G12" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44814</v>
       </c>
       <c r="H12" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I12" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J12" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="K12" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4405.05</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" s="6">
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -1104,40 +1114,41 @@
         <v>65</v>
       </c>
       <c r="D13" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>67.100000000000009</v>
       </c>
       <c r="E13" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4361.5000000000009</v>
       </c>
       <c r="F13" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G13" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44815</v>
       </c>
       <c r="H13" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="I13" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J13" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="K13" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4381.5000000000009</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A14" s="6">
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -1148,40 +1159,41 @@
         <v>64.5</v>
       </c>
       <c r="D14" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>67.100000000000009</v>
       </c>
       <c r="E14" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4327.9500000000007</v>
       </c>
       <c r="F14" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G14" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44816</v>
       </c>
       <c r="H14" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="I14" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J14" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="K14" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4357.9500000000007</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15" s="6">
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -1192,40 +1204,41 @@
         <v>64</v>
       </c>
       <c r="D15" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>67.100000000000009</v>
       </c>
       <c r="E15" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4294.4000000000005</v>
       </c>
       <c r="F15" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G15" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44817</v>
       </c>
       <c r="H15" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="I15" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J15" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="K15" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4334.4000000000005</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A16" s="6">
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -1236,40 +1249,41 @@
         <v>63.5</v>
       </c>
       <c r="D16" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>67.100000000000009</v>
       </c>
       <c r="E16" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4260.8500000000004</v>
       </c>
       <c r="F16" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G16" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44818</v>
       </c>
       <c r="H16" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="I16" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J16" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
       <c r="K16" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4310.8500000000004</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" s="6">
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -1280,40 +1294,41 @@
         <v>63</v>
       </c>
       <c r="D17" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>67.100000000000009</v>
       </c>
       <c r="E17" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4227.3</v>
       </c>
       <c r="F17" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G17" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44819</v>
       </c>
       <c r="H17" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="I17" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J17" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
       <c r="K17" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4287.3</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18" s="6">
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -1324,40 +1339,41 @@
         <v>62.5</v>
       </c>
       <c r="D18" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>67.100000000000009</v>
       </c>
       <c r="E18" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4193.7500000000009</v>
       </c>
       <c r="F18" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G18" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44820</v>
       </c>
       <c r="H18" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="I18" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J18" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>70</v>
       </c>
       <c r="K18" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4263.7500000000009</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A19" s="6">
+        <f t="shared" si="4"/>
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -1368,40 +1384,41 @@
         <v>62</v>
       </c>
       <c r="D19" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>67.100000000000009</v>
       </c>
       <c r="E19" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4160.2000000000007</v>
       </c>
       <c r="F19" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G19" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44821</v>
       </c>
       <c r="H19" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="I19" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J19" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>80</v>
       </c>
       <c r="K19" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4240.2000000000007</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A20" s="6">
+        <f t="shared" si="4"/>
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -1412,40 +1429,41 @@
         <v>61.5</v>
       </c>
       <c r="D20" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>67.100000000000009</v>
       </c>
       <c r="E20" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4126.6500000000005</v>
       </c>
       <c r="F20" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G20" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44822</v>
       </c>
       <c r="H20" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="I20" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J20" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>90</v>
       </c>
       <c r="K20" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4216.6500000000005</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A21" s="6">
+        <f t="shared" si="4"/>
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -1456,40 +1474,41 @@
         <v>61</v>
       </c>
       <c r="D21" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>67.100000000000009</v>
       </c>
       <c r="E21" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4093.1000000000004</v>
       </c>
       <c r="F21" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G21" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44823</v>
       </c>
       <c r="H21" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="I21" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J21" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="K21" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4193.1000000000004</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A22" s="6">
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -1500,40 +1519,41 @@
         <v>60.5</v>
       </c>
       <c r="D22" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>67.100000000000009</v>
       </c>
       <c r="E22" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4059.5500000000006</v>
       </c>
       <c r="F22" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G22" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44824</v>
       </c>
       <c r="H22" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="I22" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J22" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>110</v>
       </c>
       <c r="K22" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4169.5500000000011</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A23" s="6">
+        <f t="shared" si="4"/>
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -1544,40 +1564,41 @@
         <v>60</v>
       </c>
       <c r="D23" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>67.100000000000009</v>
       </c>
       <c r="E23" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4026.0000000000005</v>
       </c>
       <c r="F23" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G23" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44825</v>
       </c>
       <c r="H23" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="I23" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J23" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>120</v>
       </c>
       <c r="K23" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4146</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A24" s="6">
+        <f t="shared" si="4"/>
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -1588,40 +1609,41 @@
         <v>59.5</v>
       </c>
       <c r="D24" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>67.100000000000009</v>
       </c>
       <c r="E24" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3992.4500000000007</v>
       </c>
       <c r="F24" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G24" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44826</v>
       </c>
       <c r="H24" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="I24" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J24" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>130</v>
       </c>
       <c r="K24" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4122.4500000000007</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A25" s="6">
+        <f t="shared" si="4"/>
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
@@ -1632,40 +1654,41 @@
         <v>59</v>
       </c>
       <c r="D25" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>67.100000000000009</v>
       </c>
       <c r="E25" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3958.9000000000005</v>
       </c>
       <c r="F25" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G25" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44827</v>
       </c>
       <c r="H25" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="I25" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J25" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>140</v>
       </c>
       <c r="K25" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4098.9000000000005</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A26" s="6">
+        <f t="shared" si="4"/>
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
@@ -1676,40 +1699,41 @@
         <v>58.5</v>
       </c>
       <c r="D26" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>67.100000000000009</v>
       </c>
       <c r="E26" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3925.3500000000004</v>
       </c>
       <c r="F26" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G26" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44828</v>
       </c>
       <c r="H26" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="I26" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J26" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>150</v>
       </c>
       <c r="K26" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4075.3500000000004</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A27" s="6">
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -1720,40 +1744,41 @@
         <v>58</v>
       </c>
       <c r="D27" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>67.100000000000009</v>
       </c>
       <c r="E27" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3891.8000000000006</v>
       </c>
       <c r="F27" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G27" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44829</v>
       </c>
       <c r="H27" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="I27" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J27" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>160</v>
       </c>
       <c r="K27" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4051.8000000000006</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A28" s="6">
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
@@ -1764,40 +1789,41 @@
         <v>57.5</v>
       </c>
       <c r="D28" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>67.100000000000009</v>
       </c>
       <c r="E28" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3858.2500000000005</v>
       </c>
       <c r="F28" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G28" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44830</v>
       </c>
       <c r="H28" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="I28" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J28" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>170</v>
       </c>
       <c r="K28" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4028.2500000000005</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A29" s="6">
+        <f t="shared" si="4"/>
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
@@ -1808,40 +1834,41 @@
         <v>57</v>
       </c>
       <c r="D29" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>67.100000000000009</v>
       </c>
       <c r="E29" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3824.7000000000003</v>
       </c>
       <c r="F29" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G29" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44831</v>
       </c>
       <c r="H29" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="I29" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J29" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>180</v>
       </c>
       <c r="K29" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4004.7000000000003</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A30" s="6">
+        <f t="shared" si="4"/>
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
@@ -1852,40 +1879,41 @@
         <v>56.5</v>
       </c>
       <c r="D30" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>67.100000000000009</v>
       </c>
       <c r="E30" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3791.1500000000005</v>
       </c>
       <c r="F30" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G30" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44832</v>
       </c>
       <c r="H30" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="I30" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J30" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>190</v>
       </c>
       <c r="K30" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>3981.1500000000005</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A31" s="6">
+        <f t="shared" si="4"/>
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
@@ -1896,40 +1924,41 @@
         <v>56</v>
       </c>
       <c r="D31" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>67.100000000000009</v>
       </c>
       <c r="E31" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3757.6000000000004</v>
       </c>
       <c r="F31" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G31" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44833</v>
       </c>
       <c r="H31" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="I31" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J31" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>200</v>
       </c>
       <c r="K31" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>3957.6000000000004</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A32" s="6">
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
@@ -1940,40 +1969,41 @@
         <v>55.5</v>
       </c>
       <c r="D32" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>67.100000000000009</v>
       </c>
       <c r="E32" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3724.0500000000006</v>
       </c>
       <c r="F32" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G32" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44834</v>
       </c>
       <c r="H32" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="I32" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J32" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>210</v>
       </c>
       <c r="K32" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>3934.0500000000006</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A33" s="6">
+        <f t="shared" si="4"/>
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
@@ -1984,40 +2014,41 @@
         <v>55</v>
       </c>
       <c r="D33" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>67.100000000000009</v>
       </c>
       <c r="E33" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3690.5000000000005</v>
       </c>
       <c r="F33" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G33" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44835</v>
       </c>
       <c r="H33" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="I33" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J33" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>220</v>
       </c>
       <c r="K33" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>3910.5000000000005</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A34" s="6">
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
@@ -2028,40 +2059,41 @@
         <v>54.5</v>
       </c>
       <c r="D34" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>67.100000000000009</v>
       </c>
       <c r="E34" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3656.9500000000003</v>
       </c>
       <c r="F34" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G34" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44836</v>
       </c>
       <c r="H34" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
       <c r="I34" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J34" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>230</v>
       </c>
       <c r="K34" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>3886.9500000000003</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A35" s="6">
+        <f t="shared" si="4"/>
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
@@ -2072,7 +2104,7 @@
         <v>54</v>
       </c>
       <c r="D35" s="1">
-        <f>($A$1*1.1)/2</f>
+        <f>D3/2</f>
         <v>33.550000000000004</v>
       </c>
       <c r="E35" s="1">
@@ -2080,32 +2112,33 @@
         <v>1811.7000000000003</v>
       </c>
       <c r="F35" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G35" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44837</v>
       </c>
       <c r="H35" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="I35" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J35" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>240</v>
       </c>
       <c r="K35" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2051.7000000000003</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A36" s="6">
+        <f t="shared" si="4"/>
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
@@ -2116,40 +2149,41 @@
         <v>53.5</v>
       </c>
       <c r="D36" s="1">
-        <f t="shared" ref="D36:D37" si="9">($A$1*1.1)/2</f>
+        <f t="shared" ref="D36:D38" si="10">D4/2</f>
         <v>33.550000000000004</v>
       </c>
       <c r="E36" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1794.9250000000002</v>
       </c>
       <c r="F36" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G36" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44838</v>
       </c>
       <c r="H36" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="I36" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J36" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>250</v>
       </c>
       <c r="K36" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2044.9250000000002</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A37" s="6">
+        <f t="shared" si="4"/>
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
@@ -2160,40 +2194,41 @@
         <v>53</v>
       </c>
       <c r="D37" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>33.550000000000004</v>
       </c>
       <c r="E37" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1778.1500000000003</v>
       </c>
       <c r="F37" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G37" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44839</v>
       </c>
       <c r="H37" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="I37" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J37" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>260</v>
       </c>
       <c r="K37" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2038.1500000000003</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A38" s="6">
+        <f t="shared" si="4"/>
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
@@ -2204,35 +2239,35 @@
         <v>52.5</v>
       </c>
       <c r="D38" s="1">
-        <f>($A$1*1.1)/2</f>
+        <f t="shared" si="10"/>
         <v>33.550000000000004</v>
       </c>
       <c r="E38" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1761.3750000000002</v>
       </c>
       <c r="F38" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G38" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44840</v>
       </c>
       <c r="H38" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="I38" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J38" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>270</v>
       </c>
       <c r="K38" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2031.3750000000002</v>
       </c>
     </row>
@@ -2255,8 +2290,8 @@
         <v>45</v>
       </c>
       <c r="C40" s="5">
-        <f>ROUNDUP(SUM(K3:K38),)</f>
-        <v>144590</v>
+        <f>ROUNDDOWN(SUM(K3:K38),)</f>
+        <v>144589</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>

--- a/LR3/table_1_61.xlsx
+++ b/LR3/table_1_61.xlsx
@@ -249,7 +249,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -262,9 +262,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
@@ -574,7 +571,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -584,8 +581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -595,13 +592,13 @@
     <col min="3" max="3" width="15.54296875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.54296875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.08984375" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.08984375" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.90625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.453125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.6328125" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.7265625" style="6"/>
+    <col min="12" max="16384" width="8.7265625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
@@ -646,7 +643,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A3" s="5">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -687,7 +684,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A4" s="5">
+      <c r="A4" s="1">
         <f>A3+1</f>
         <v>2</v>
       </c>
@@ -732,7 +729,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A5" s="5">
+      <c r="A5" s="1">
         <f t="shared" ref="A5:A38" si="4">A4+1</f>
         <v>3</v>
       </c>
@@ -777,7 +774,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A6" s="5">
+      <c r="A6" s="1">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
@@ -822,7 +819,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A7" s="5">
+      <c r="A7" s="1">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
@@ -867,7 +864,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A8" s="5">
+      <c r="A8" s="1">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
@@ -912,7 +909,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A9" s="5">
+      <c r="A9" s="1">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
@@ -957,7 +954,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A10" s="5">
+      <c r="A10" s="1">
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
@@ -1002,7 +999,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A11" s="5">
+      <c r="A11" s="1">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
@@ -1047,7 +1044,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A12" s="5">
+      <c r="A12" s="1">
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
@@ -1092,7 +1089,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A13" s="5">
+      <c r="A13" s="1">
         <f t="shared" si="4"/>
         <v>11</v>
       </c>
@@ -1137,7 +1134,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A14" s="5">
+      <c r="A14" s="1">
         <f t="shared" si="4"/>
         <v>12</v>
       </c>
@@ -1182,7 +1179,7 @@
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A15" s="5">
+      <c r="A15" s="1">
         <f t="shared" si="4"/>
         <v>13</v>
       </c>
@@ -1227,7 +1224,7 @@
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A16" s="5">
+      <c r="A16" s="1">
         <f t="shared" si="4"/>
         <v>14</v>
       </c>
@@ -1272,7 +1269,7 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A17" s="5">
+      <c r="A17" s="1">
         <f t="shared" si="4"/>
         <v>15</v>
       </c>
@@ -1317,7 +1314,7 @@
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A18" s="5">
+      <c r="A18" s="1">
         <f t="shared" si="4"/>
         <v>16</v>
       </c>
@@ -1362,7 +1359,7 @@
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A19" s="5">
+      <c r="A19" s="1">
         <f t="shared" si="4"/>
         <v>17</v>
       </c>
@@ -1407,7 +1404,7 @@
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A20" s="5">
+      <c r="A20" s="1">
         <f t="shared" si="4"/>
         <v>18</v>
       </c>
@@ -1452,7 +1449,7 @@
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A21" s="5">
+      <c r="A21" s="1">
         <f t="shared" si="4"/>
         <v>19</v>
       </c>
@@ -1497,7 +1494,7 @@
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A22" s="5">
+      <c r="A22" s="1">
         <f t="shared" si="4"/>
         <v>20</v>
       </c>
@@ -1542,7 +1539,7 @@
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A23" s="5">
+      <c r="A23" s="1">
         <f t="shared" si="4"/>
         <v>21</v>
       </c>
@@ -1587,7 +1584,7 @@
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A24" s="5">
+      <c r="A24" s="1">
         <f t="shared" si="4"/>
         <v>22</v>
       </c>
@@ -1632,7 +1629,7 @@
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A25" s="5">
+      <c r="A25" s="1">
         <f t="shared" si="4"/>
         <v>23</v>
       </c>
@@ -1677,7 +1674,7 @@
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A26" s="5">
+      <c r="A26" s="1">
         <f t="shared" si="4"/>
         <v>24</v>
       </c>
@@ -1722,7 +1719,7 @@
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A27" s="5">
+      <c r="A27" s="1">
         <f t="shared" si="4"/>
         <v>25</v>
       </c>
@@ -1767,7 +1764,7 @@
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A28" s="5">
+      <c r="A28" s="1">
         <f t="shared" si="4"/>
         <v>26</v>
       </c>
@@ -1812,7 +1809,7 @@
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A29" s="5">
+      <c r="A29" s="1">
         <f t="shared" si="4"/>
         <v>27</v>
       </c>
@@ -1857,7 +1854,7 @@
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A30" s="5">
+      <c r="A30" s="1">
         <f t="shared" si="4"/>
         <v>28</v>
       </c>
@@ -1902,7 +1899,7 @@
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A31" s="5">
+      <c r="A31" s="1">
         <f t="shared" si="4"/>
         <v>29</v>
       </c>
@@ -1947,7 +1944,7 @@
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A32" s="5">
+      <c r="A32" s="1">
         <f t="shared" si="4"/>
         <v>30</v>
       </c>
@@ -1992,7 +1989,7 @@
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A33" s="5">
+      <c r="A33" s="1">
         <f t="shared" si="4"/>
         <v>31</v>
       </c>
@@ -2037,7 +2034,7 @@
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A34" s="5">
+      <c r="A34" s="1">
         <f t="shared" si="4"/>
         <v>32</v>
       </c>
@@ -2082,7 +2079,7 @@
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A35" s="5">
+      <c r="A35" s="1">
         <f t="shared" si="4"/>
         <v>33</v>
       </c>
@@ -2127,7 +2124,7 @@
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A36" s="5">
+      <c r="A36" s="1">
         <f t="shared" si="4"/>
         <v>34</v>
       </c>
@@ -2139,7 +2136,7 @@
         <v>53.5</v>
       </c>
       <c r="D36" s="1">
-        <f t="shared" ref="D36:D38" si="10">D4/2</f>
+        <f>D3/2</f>
         <v>33.550000000000004</v>
       </c>
       <c r="E36" s="1">
@@ -2172,7 +2169,7 @@
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A37" s="5">
+      <c r="A37" s="1">
         <f t="shared" si="4"/>
         <v>35</v>
       </c>
@@ -2184,7 +2181,7 @@
         <v>53</v>
       </c>
       <c r="D37" s="1">
-        <f t="shared" si="10"/>
+        <f>D3/2</f>
         <v>33.550000000000004</v>
       </c>
       <c r="E37" s="1">
@@ -2217,7 +2214,7 @@
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A38" s="5">
+      <c r="A38" s="1">
         <f t="shared" si="4"/>
         <v>36</v>
       </c>
@@ -2229,7 +2226,7 @@
         <v>52.5</v>
       </c>
       <c r="D38" s="1">
-        <f t="shared" si="10"/>
+        <f>D3/2</f>
         <v>33.550000000000004</v>
       </c>
       <c r="E38" s="1">

--- a/LR3/table_1_61.xlsx
+++ b/LR3/table_1_61.xlsx
@@ -146,18 +146,9 @@
     <t>Просрочка, дней</t>
   </si>
   <si>
-    <t>Штраф, руб.</t>
-  </si>
-  <si>
     <t>Итого, руб.</t>
   </si>
   <si>
-    <t>Дата оплаты, дней</t>
-  </si>
-  <si>
-    <t>Срок оплаты, дней</t>
-  </si>
-  <si>
     <t>Сумма, руб.</t>
   </si>
   <si>
@@ -180,6 +171,15 @@
   </si>
   <si>
     <t>Пени за 1 день</t>
+  </si>
+  <si>
+    <t>Дата оплаты</t>
+  </si>
+  <si>
+    <t>Срок оплаты</t>
+  </si>
+  <si>
+    <t>Штраф</t>
   </si>
 </sst>
 </file>
@@ -571,7 +571,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -581,8 +581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -612,34 +612,34 @@
         <v>37</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>38</v>
       </c>
       <c r="I2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
@@ -2264,7 +2264,7 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B40" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C40" s="4">
         <f>ROUNDDOWN(SUM(K3:K38),)</f>
@@ -2274,7 +2274,7 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B41" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C41" s="1">
         <f>AVERAGE(C3:C38)</f>
@@ -2284,7 +2284,7 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B42" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C42" s="1">
         <f>MAX(H3:H38)</f>
@@ -2294,7 +2294,7 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B43" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C43" s="1">
         <f>MAX(K3:K38)</f>

--- a/LR3/table_1_61.xlsx
+++ b/LR3/table_1_61.xlsx
@@ -170,16 +170,16 @@
     <t>Максимальная сумма, руб.</t>
   </si>
   <si>
-    <t>Пени за 1 день</t>
-  </si>
-  <si>
     <t>Дата оплаты</t>
   </si>
   <si>
     <t>Срок оплаты</t>
   </si>
   <si>
-    <t>Штраф</t>
+    <t>Пени за 1 день, руб.</t>
+  </si>
+  <si>
+    <t>Штраф, руб.</t>
   </si>
 </sst>
 </file>
@@ -571,7 +571,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -581,8 +581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -624,16 +624,16 @@
         <v>40</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>38</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>50</v>

--- a/LR3/table_1_61.xlsx
+++ b/LR3/table_1_61.xlsx
@@ -137,9 +137,6 @@
     <t>Куропаткин 11</t>
   </si>
   <si>
-    <t>Куропаткин 12</t>
-  </si>
-  <si>
     <t>№ квартиры</t>
   </si>
   <si>
@@ -180,6 +177,9 @@
   </si>
   <si>
     <t>Штраф, руб.</t>
+  </si>
+  <si>
+    <t>Санников</t>
   </si>
 </sst>
 </file>
@@ -571,7 +571,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -581,8 +581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -609,37 +609,37 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H2" s="1" t="s">
+      <c r="J2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
@@ -675,11 +675,11 @@
         <v>10</v>
       </c>
       <c r="J3" s="1">
-        <f>I3*H3</f>
+        <f>H3*I3</f>
         <v>0</v>
       </c>
       <c r="K3" s="1">
-        <f>J3+E3</f>
+        <f>E3+J3</f>
         <v>4697.0000000000009</v>
       </c>
     </row>
@@ -720,11 +720,11 @@
         <v>10</v>
       </c>
       <c r="J4" s="1">
-        <f t="shared" ref="J4:J38" si="2">I4*H4</f>
+        <f t="shared" ref="J4:J38" si="2">H4*I4</f>
         <v>0</v>
       </c>
       <c r="K4" s="1">
-        <f t="shared" ref="K4:K38" si="3">J4+E4</f>
+        <f t="shared" ref="K4:K38" si="3">E4+J4</f>
         <v>4663.4500000000007</v>
       </c>
     </row>
@@ -1724,7 +1724,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="C27" s="1">
         <f t="shared" si="5"/>
@@ -1769,7 +1769,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C28" s="1">
         <f t="shared" si="5"/>
@@ -1814,7 +1814,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C29" s="1">
         <f t="shared" si="5"/>
@@ -1859,7 +1859,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C30" s="1">
         <f t="shared" si="5"/>
@@ -1904,7 +1904,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C31" s="1">
         <f t="shared" si="5"/>
@@ -1949,7 +1949,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C32" s="1">
         <f t="shared" si="5"/>
@@ -1994,7 +1994,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C33" s="1">
         <f t="shared" si="5"/>
@@ -2039,7 +2039,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C34" s="1">
         <f t="shared" si="5"/>
@@ -2084,7 +2084,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C35" s="1">
         <f t="shared" si="5"/>
@@ -2129,7 +2129,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C36" s="1">
         <f t="shared" si="5"/>
@@ -2174,7 +2174,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C37" s="1">
         <f t="shared" si="5"/>
@@ -2219,7 +2219,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C38" s="1">
         <f t="shared" si="5"/>
@@ -2264,7 +2264,7 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B40" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C40" s="4">
         <f>ROUNDDOWN(SUM(K3:K38),)</f>
@@ -2274,7 +2274,7 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B41" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C41" s="1">
         <f>AVERAGE(C3:C38)</f>
@@ -2284,7 +2284,7 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B42" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C42" s="1">
         <f>MAX(H3:H38)</f>
@@ -2294,7 +2294,7 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B43" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C43" s="1">
         <f>MAX(K3:K38)</f>

--- a/LR3/table_1_61.xlsx
+++ b/LR3/table_1_61.xlsx
@@ -179,7 +179,7 @@
     <t>Штраф, руб.</t>
   </si>
   <si>
-    <t>Санников</t>
+    <t>Куропаткин 12</t>
   </si>
 </sst>
 </file>
@@ -571,7 +571,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -582,7 +582,7 @@
   <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -650,7 +650,6 @@
         <v>1</v>
       </c>
       <c r="C3" s="1">
-        <f>70</f>
         <v>70</v>
       </c>
       <c r="D3" s="1">
@@ -1724,7 +1723,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="C27" s="1">
         <f t="shared" si="5"/>
@@ -1769,7 +1768,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C28" s="1">
         <f t="shared" si="5"/>
@@ -1814,7 +1813,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C29" s="1">
         <f t="shared" si="5"/>
@@ -1859,7 +1858,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C30" s="1">
         <f t="shared" si="5"/>
@@ -1904,7 +1903,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C31" s="1">
         <f t="shared" si="5"/>
@@ -1949,7 +1948,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C32" s="1">
         <f t="shared" si="5"/>
@@ -1994,7 +1993,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C33" s="1">
         <f t="shared" si="5"/>
@@ -2039,7 +2038,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C34" s="1">
         <f t="shared" si="5"/>
@@ -2084,7 +2083,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C35" s="1">
         <f t="shared" si="5"/>
@@ -2129,7 +2128,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C36" s="1">
         <f t="shared" si="5"/>
@@ -2174,7 +2173,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C37" s="1">
         <f t="shared" si="5"/>
@@ -2219,7 +2218,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="C38" s="1">
         <f t="shared" si="5"/>

--- a/LR3/table_1_61.xlsx
+++ b/LR3/table_1_61.xlsx
@@ -571,7 +571,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -581,8 +581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -2266,8 +2266,8 @@
         <v>44</v>
       </c>
       <c r="C40" s="4">
-        <f>ROUNDDOWN(SUM(K3:K38),)</f>
-        <v>144589</v>
+        <f>ROUNDUP(SUM(K3:K38),)</f>
+        <v>144590</v>
       </c>
       <c r="F40" s="1"/>
     </row>

--- a/LR3/table_1_61.xlsx
+++ b/LR3/table_1_61.xlsx
@@ -571,7 +571,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -581,8 +581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -823,7 +823,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" si="5"/>
@@ -868,7 +868,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" si="5"/>

--- a/LR3/table_1_61.xlsx
+++ b/LR3/table_1_61.xlsx
@@ -571,7 +571,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -581,8 +581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -2266,8 +2266,8 @@
         <v>44</v>
       </c>
       <c r="C40" s="4">
-        <f>ROUNDUP(SUM(K3:K38),)</f>
-        <v>144590</v>
+        <f>ROUNDDOWN(SUM(K3:K38),)</f>
+        <v>144589</v>
       </c>
       <c r="F40" s="1"/>
     </row>

--- a/LR3/table_1_61.xlsx
+++ b/LR3/table_1_61.xlsx
@@ -189,7 +189,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* &quot;-&quot;??\ &quot;₽&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -227,6 +227,14 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -249,7 +257,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -264,6 +272,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Денежный" xfId="1" builtinId="4"/>
@@ -571,7 +582,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -581,8 +592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -823,7 +834,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" si="5"/>
@@ -868,7 +879,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" si="5"/>
@@ -1002,7 +1013,7 @@
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C11" s="1">

--- a/LR3/table_1_61.xlsx
+++ b/LR3/table_1_61.xlsx
@@ -582,7 +582,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -592,8 +592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -2277,7 +2277,7 @@
         <v>44</v>
       </c>
       <c r="C40" s="4">
-        <f>ROUNDDOWN(SUM(K3:K38),)</f>
+        <f>FLOOR(SUM(K3:K38),1)</f>
         <v>144589</v>
       </c>
       <c r="F40" s="1"/>

--- a/LR3/table_1_61.xlsx
+++ b/LR3/table_1_61.xlsx
@@ -101,9 +101,6 @@
     <t>Казанкин</t>
   </si>
   <si>
-    <t xml:space="preserve"> Камалов</t>
-  </si>
-  <si>
     <t>Куропаткин 1</t>
   </si>
   <si>
@@ -180,6 +177,9 @@
   </si>
   <si>
     <t>Куропаткин 12</t>
+  </si>
+  <si>
+    <t>Камалов</t>
   </si>
 </sst>
 </file>
@@ -189,7 +189,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* &quot;-&quot;??\ &quot;₽&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -227,14 +227,6 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -257,7 +249,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -272,9 +264,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Денежный" xfId="1" builtinId="4"/>
@@ -582,7 +571,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -592,8 +581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -620,37 +609,37 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H2" s="1" t="s">
+      <c r="J2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
@@ -1013,7 +1002,7 @@
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C11" s="1">
@@ -1194,7 +1183,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="C15" s="1">
         <f t="shared" si="5"/>
@@ -1734,7 +1723,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C27" s="1">
         <f t="shared" si="5"/>
@@ -1779,7 +1768,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C28" s="1">
         <f t="shared" si="5"/>
@@ -1824,7 +1813,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C29" s="1">
         <f t="shared" si="5"/>
@@ -1869,7 +1858,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C30" s="1">
         <f t="shared" si="5"/>
@@ -1914,7 +1903,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C31" s="1">
         <f t="shared" si="5"/>
@@ -1959,7 +1948,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C32" s="1">
         <f t="shared" si="5"/>
@@ -2004,7 +1993,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C33" s="1">
         <f t="shared" si="5"/>
@@ -2049,7 +2038,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C34" s="1">
         <f t="shared" si="5"/>
@@ -2094,7 +2083,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C35" s="1">
         <f t="shared" si="5"/>
@@ -2139,7 +2128,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C36" s="1">
         <f t="shared" si="5"/>
@@ -2184,7 +2173,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C37" s="1">
         <f t="shared" si="5"/>
@@ -2229,7 +2218,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C38" s="1">
         <f t="shared" si="5"/>
@@ -2274,7 +2263,7 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B40" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C40" s="4">
         <f>FLOOR(SUM(K3:K38),1)</f>
@@ -2284,7 +2273,7 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B41" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C41" s="1">
         <f>AVERAGE(C3:C38)</f>
@@ -2294,7 +2283,7 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B42" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C42" s="1">
         <f>MAX(H3:H38)</f>
@@ -2304,7 +2293,7 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B43" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C43" s="1">
         <f>MAX(K3:K38)</f>

--- a/LR3/table_1_61.xlsx
+++ b/LR3/table_1_61.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{82089085-44FA-4BC0-BE28-699D5E05EBBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEB4CC25-6B93-43B9-8604-A2E7A4817866}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{243D3798-6FC5-467A-B172-5B628ED3FC73}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{243D3798-6FC5-467A-B172-5B628ED3FC73}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -165,28 +165,28 @@
     <t>Куропаткин 15</t>
   </si>
   <si>
-    <t>общая сумма</t>
-  </si>
-  <si>
-    <t>средняя площадь</t>
-  </si>
-  <si>
-    <t>макс. срок просрочки</t>
-  </si>
-  <si>
-    <t>макс. сумма к оплате</t>
-  </si>
-  <si>
-    <t>Площадь кв.м</t>
-  </si>
-  <si>
     <t>Сумма руб.</t>
   </si>
   <si>
     <t>Просрочка дней</t>
   </si>
   <si>
-    <t>Тариф руб./кв.м</t>
+    <t>Общая сумма, руб.</t>
+  </si>
+  <si>
+    <t>Средняя площадь, кв.м.</t>
+  </si>
+  <si>
+    <t>Максимальный срок просрочки, дней.</t>
+  </si>
+  <si>
+    <t>Максимальная сумма, руб.</t>
+  </si>
+  <si>
+    <t>Тариф руб./кв.м.</t>
+  </si>
+  <si>
+    <t>Площадь кв.м.</t>
   </si>
 </sst>
 </file>
@@ -562,8 +562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A51507F0-9F30-4032-A344-78584389DCC6}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -595,13 +595,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>2</v>
@@ -610,7 +610,7 @@
         <v>3</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>4</v>
@@ -2134,7 +2134,7 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C40" s="1">
         <f>MROUND(SUM(K3:K38),10)</f>
@@ -2143,7 +2143,7 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C41" s="1">
         <f>AVERAGE(C3:C38)</f>
@@ -2152,7 +2152,7 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C42" s="1">
         <f>MAX(H3:H38)</f>
@@ -2161,7 +2161,7 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C43" s="1">
         <f>MAX(E3:E38)</f>

--- a/LR3/table_1_61.xlsx
+++ b/LR3/table_1_61.xlsx
@@ -14,14 +14,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -125,15 +117,6 @@
     <t>Куропаткин 8</t>
   </si>
   <si>
-    <t>Куропаткин 9</t>
-  </si>
-  <si>
-    <t>Куропаткин 10</t>
-  </si>
-  <si>
-    <t>Куропаткин 11</t>
-  </si>
-  <si>
     <t>№ квартиры</t>
   </si>
   <si>
@@ -176,10 +159,19 @@
     <t>Штраф, руб.</t>
   </si>
   <si>
-    <t>Куропаткин 12</t>
-  </si>
-  <si>
     <t>Камалов</t>
+  </si>
+  <si>
+    <t>Санников</t>
+  </si>
+  <si>
+    <t>Ахмадуллина</t>
+  </si>
+  <si>
+    <t>Роман</t>
+  </si>
+  <si>
+    <t>Мохамед</t>
   </si>
 </sst>
 </file>
@@ -571,7 +563,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -581,11 +573,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="12.90625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="37.54296875" style="1" bestFit="1" customWidth="1"/>
@@ -598,10 +590,10 @@
     <col min="9" max="9" width="18.453125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.6328125" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.7265625" style="5"/>
+    <col min="12" max="16384" width="8.81640625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="15.65" x14ac:dyDescent="0.3">
       <c r="A1" s="1">
         <v>61</v>
       </c>
@@ -609,37 +601,37 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="K2" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
@@ -823,7 +815,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" si="5"/>
@@ -868,7 +860,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" si="5"/>
@@ -1183,7 +1175,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C15" s="1">
         <f t="shared" si="5"/>
@@ -1719,30 +1711,30 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
-        <f t="shared" si="4"/>
+        <f>A26+1</f>
         <v>25</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>24</v>
+      <c r="B27" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="C27" s="1">
-        <f t="shared" si="5"/>
+        <f>C26-0.5</f>
         <v>58</v>
       </c>
       <c r="D27" s="1">
-        <f t="shared" si="6"/>
+        <f>D26</f>
         <v>67.100000000000009</v>
       </c>
       <c r="E27" s="1">
-        <f t="shared" si="0"/>
+        <f>C27*D27</f>
         <v>3891.8000000000006</v>
       </c>
       <c r="F27" s="3">
-        <f t="shared" si="7"/>
+        <f>$F$3</f>
         <v>44813</v>
       </c>
       <c r="G27" s="3">
-        <f t="shared" si="8"/>
+        <f>G26+1</f>
         <v>44829</v>
       </c>
       <c r="H27" s="1">
@@ -1768,7 +1760,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="C28" s="1">
         <f t="shared" si="5"/>
@@ -1813,7 +1805,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="C29" s="1">
         <f t="shared" si="5"/>
@@ -1858,7 +1850,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="C30" s="1">
         <f t="shared" si="5"/>
@@ -1903,7 +1895,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C31" s="1">
         <f t="shared" si="5"/>
@@ -1948,7 +1940,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C32" s="1">
         <f t="shared" si="5"/>
@@ -1993,7 +1985,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C33" s="1">
         <f t="shared" si="5"/>
@@ -2038,7 +2030,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C34" s="1">
         <f t="shared" si="5"/>
@@ -2083,7 +2075,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C35" s="1">
         <f t="shared" si="5"/>
@@ -2094,7 +2086,7 @@
         <v>33.550000000000004</v>
       </c>
       <c r="E35" s="1">
-        <f>C35*D35</f>
+        <f t="shared" si="0"/>
         <v>1811.7000000000003</v>
       </c>
       <c r="F35" s="3">
@@ -2128,7 +2120,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C36" s="1">
         <f t="shared" si="5"/>
@@ -2173,7 +2165,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C37" s="1">
         <f t="shared" si="5"/>
@@ -2218,7 +2210,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="C38" s="1">
         <f t="shared" si="5"/>
@@ -2257,49 +2249,41 @@
         <v>2031.3750000000002</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B39" s="2"/>
-      <c r="F39" s="1"/>
-    </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B40" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C40" s="4">
         <f>FLOOR(SUM(K3:K38),1)</f>
         <v>144589</v>
       </c>
-      <c r="F40" s="1"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B41" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C41" s="1">
         <f>AVERAGE(C3:C38)</f>
         <v>61.25</v>
       </c>
-      <c r="F41" s="1"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B42" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C42" s="1">
         <f>MAX(H3:H38)</f>
         <v>27</v>
       </c>
-      <c r="F42" s="1"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B43" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C43" s="1">
         <f>MAX(K3:K38)</f>
         <v>4697.0000000000009</v>
       </c>
-      <c r="F43" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
